--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_19_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_19_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3535560.487605747</v>
+        <v>3533052.63387002</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7037.93591263771</v>
+        <v>7037.935912639061</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7772818.210944301</v>
+        <v>7772818.210944299</v>
       </c>
     </row>
     <row r="11">
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -916,37 +916,37 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="S5" t="n">
         <v>6.056421089299432</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -977,25 +977,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="D7" t="n">
         <v>6.876045741711437</v>
@@ -1065,20 +1065,20 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1153,40 +1153,40 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="T8" t="n">
         <v>6.056421089299432</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1217,23 +1217,23 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>6.056421089299432</v>
       </c>
-      <c r="I9" t="n">
-        <v>6.876045741711437</v>
-      </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1293,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>375.2658433894975</v>
       </c>
       <c r="G11" t="n">
-        <v>378.5542040247496</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H11" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994754</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T11" t="n">
         <v>168.9926026545724</v>
@@ -1469,7 +1469,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I12" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T12" t="n">
         <v>189.0833237787849</v>
@@ -1548,7 +1548,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I13" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139452984</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>42.04747230221603</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S13" t="n">
         <v>152.2386502424833</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>60.32014642295086</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T14" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U14" t="n">
-        <v>219.3243840645699</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V14" t="n">
         <v>296.142056117921</v>
       </c>
       <c r="W14" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651969</v>
       </c>
       <c r="X14" t="n">
         <v>338.1208983262551</v>
@@ -1706,7 +1706,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I15" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T15" t="n">
         <v>189.0833237787849</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C16" t="n">
         <v>135.6366187464139</v>
@@ -1779,13 +1779,13 @@
         <v>113.8108456707173</v>
       </c>
       <c r="G16" t="n">
-        <v>134.0758985510296</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H16" t="n">
         <v>110.1245053442997</v>
       </c>
       <c r="I16" t="n">
-        <v>54.52629139453009</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>42.04747230221574</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S16" t="n">
         <v>152.2386502424833</v>
@@ -1824,10 +1824,10 @@
         <v>254.5831063612651</v>
       </c>
       <c r="V16" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W16" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X16" t="n">
         <v>194.0994530368232</v>
@@ -1897,13 +1897,13 @@
         <v>60.32014642295175</v>
       </c>
       <c r="T17" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645686</v>
       </c>
       <c r="V17" t="n">
-        <v>296.1420561179206</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W17" t="n">
         <v>317.6307663651991</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C19" t="n">
         <v>135.6366187464139</v>
@@ -2022,7 +2022,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453009</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221575</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S19" t="n">
         <v>152.2386502424833</v>
@@ -2061,10 +2061,10 @@
         <v>254.5831063612651</v>
       </c>
       <c r="V19" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W19" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X19" t="n">
         <v>194.0994530368232</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>351.1236393112663</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C20" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D20" t="n">
         <v>323.072839268469</v>
@@ -2092,13 +2092,13 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F20" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G20" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H20" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947558</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295171</v>
       </c>
       <c r="T20" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545722</v>
       </c>
       <c r="U20" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645686</v>
       </c>
       <c r="V20" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W20" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X20" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y20" t="n">
         <v>354.6277363038396</v>
@@ -2241,25 +2241,25 @@
         <v>148.2217778297233</v>
       </c>
       <c r="C22" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D22" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659983</v>
       </c>
       <c r="E22" t="n">
         <v>114.8237602943552</v>
       </c>
       <c r="F22" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G22" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H22" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453034</v>
+        <v>54.52629139453005</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221575</v>
+        <v>42.0474723022157</v>
       </c>
       <c r="S22" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424832</v>
       </c>
       <c r="T22" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401419</v>
       </c>
       <c r="U22" t="n">
-        <v>254.5831063612651</v>
+        <v>254.583106361265</v>
       </c>
       <c r="V22" t="n">
         <v>220.527440971614</v>
@@ -2304,7 +2304,7 @@
         <v>254.912795984377</v>
       </c>
       <c r="X22" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y22" t="n">
         <v>186.9744509998808</v>
@@ -2320,7 +2320,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C23" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D23" t="n">
         <v>323.072839268469</v>
@@ -2329,13 +2329,13 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F23" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G23" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H23" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947558</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295171</v>
       </c>
       <c r="T23" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545722</v>
       </c>
       <c r="U23" t="n">
-        <v>219.3243840645699</v>
+        <v>219.3243840645686</v>
       </c>
       <c r="V23" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W23" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X23" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y23" t="n">
         <v>354.6277363038396</v>
@@ -2478,25 +2478,25 @@
         <v>148.2217778297233</v>
       </c>
       <c r="C25" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D25" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659983</v>
       </c>
       <c r="E25" t="n">
         <v>114.8237602943552</v>
       </c>
       <c r="F25" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G25" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H25" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453009</v>
+        <v>54.52629139453005</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221575</v>
+        <v>42.0474723022157</v>
       </c>
       <c r="S25" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424832</v>
       </c>
       <c r="T25" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401419</v>
       </c>
       <c r="U25" t="n">
-        <v>254.5831063612651</v>
+        <v>254.583106361265</v>
       </c>
       <c r="V25" t="n">
         <v>220.527440971614</v>
@@ -2541,7 +2541,7 @@
         <v>254.912795984377</v>
       </c>
       <c r="X25" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y25" t="n">
         <v>186.9744509998808</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>351.1236393112665</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D26" t="n">
-        <v>323.0728392684689</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E26" t="n">
-        <v>350.3201677200477</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F26" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G26" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H26" t="n">
-        <v>255.2416659947558</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T26" t="n">
         <v>168.9926026545722</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645695</v>
+        <v>219.3243840645686</v>
       </c>
       <c r="V26" t="n">
-        <v>296.1420561179208</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W26" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X26" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.6277363038395</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>148.2217778297232</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C28" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D28" t="n">
-        <v>117.0052706659983</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8237602943551</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F28" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G28" t="n">
-        <v>134.0758985510313</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H28" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453002</v>
+        <v>54.52629139452983</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221567</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S28" t="n">
-        <v>152.2386502424832</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T28" t="n">
-        <v>186.4872700401419</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U28" t="n">
-        <v>254.583106361265</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V28" t="n">
-        <v>220.5274409716139</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W28" t="n">
-        <v>254.9127959843769</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X28" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9744509998807</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="29">
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T29" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645695</v>
+        <v>219.324384064569</v>
       </c>
       <c r="V29" t="n">
         <v>296.142056117921</v>
@@ -2961,7 +2961,7 @@
         <v>114.8237602943552</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8108456707168</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G31" t="n">
         <v>134.0758985510282</v>
@@ -2970,7 +2970,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453023</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S31" t="n">
         <v>152.2386502424833</v>
@@ -3006,7 +3006,7 @@
         <v>186.487270040142</v>
       </c>
       <c r="U31" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612653</v>
       </c>
       <c r="V31" t="n">
         <v>220.5274409716141</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295171</v>
+        <v>60.3201464229517</v>
       </c>
       <c r="T32" t="n">
         <v>168.9926026545723</v>
       </c>
       <c r="U32" t="n">
-        <v>219.324384064569</v>
+        <v>219.3243840645695</v>
       </c>
       <c r="V32" t="n">
         <v>296.1420561179209</v>
@@ -3195,7 +3195,7 @@
         <v>117.0052706659983</v>
       </c>
       <c r="E34" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943574</v>
       </c>
       <c r="F34" t="n">
         <v>113.8108456707172</v>
@@ -3207,7 +3207,7 @@
         <v>110.1245053442996</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453005</v>
+        <v>54.52629139453003</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>60.32014642295178</v>
       </c>
       <c r="T35" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U35" t="n">
-        <v>219.3243840645686</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V35" t="n">
         <v>296.142056117921</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>351.1236393112664</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C38" t="n">
-        <v>333.6626894187934</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D38" t="n">
-        <v>323.0728392684688</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E38" t="n">
-        <v>350.3201677200476</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F38" t="n">
-        <v>375.2658433894973</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G38" t="n">
-        <v>378.5542040247495</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H38" t="n">
-        <v>255.2416659947557</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295158</v>
+        <v>60.32014642295174</v>
       </c>
       <c r="T38" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U38" t="n">
-        <v>219.324384064569</v>
+        <v>219.3243840645686</v>
       </c>
       <c r="V38" t="n">
-        <v>296.1420561179208</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W38" t="n">
-        <v>317.6307663651988</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X38" t="n">
-        <v>338.1208983262549</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y38" t="n">
-        <v>354.6277363038395</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>148.2217778297232</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C40" t="n">
-        <v>135.6366187464137</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D40" t="n">
-        <v>117.0052706659982</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E40" t="n">
-        <v>114.823760294355</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F40" t="n">
-        <v>113.8108456707171</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G40" t="n">
-        <v>134.075898551028</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H40" t="n">
-        <v>110.1245053442995</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139452992</v>
+        <v>54.52629139453008</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221558</v>
+        <v>42.04747230221572</v>
       </c>
       <c r="S40" t="n">
-        <v>152.2386502424831</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T40" t="n">
-        <v>186.4872700401418</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U40" t="n">
-        <v>254.5831063612649</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V40" t="n">
-        <v>220.5274409716139</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W40" t="n">
-        <v>254.9127959843769</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X40" t="n">
-        <v>194.099453036823</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y40" t="n">
-        <v>186.9744509998806</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="41">
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642294905</v>
       </c>
       <c r="T41" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U41" t="n">
         <v>219.3243840645688</v>
@@ -3808,7 +3808,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y41" t="n">
-        <v>354.6277363038391</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="42">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C43" t="n">
         <v>135.6366187464139</v>
@@ -3918,7 +3918,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S43" t="n">
         <v>152.2386502424833</v>
@@ -3954,13 +3954,13 @@
         <v>186.487270040142</v>
       </c>
       <c r="U43" t="n">
-        <v>254.5831063612655</v>
+        <v>254.5831063612648</v>
       </c>
       <c r="V43" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W43" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X43" t="n">
         <v>194.0994530368232</v>
@@ -3979,7 +3979,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C44" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D44" t="n">
         <v>323.072839268469</v>
@@ -3988,13 +3988,13 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F44" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G44" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H44" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947557</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295171</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T44" t="n">
         <v>168.9926026545723</v>
       </c>
       <c r="U44" t="n">
-        <v>219.3243840645681</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V44" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W44" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X44" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y44" t="n">
         <v>354.6277363038396</v>
@@ -4073,10 +4073,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H45" t="n">
-        <v>85.68348164116146</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I45" t="n">
-        <v>4.866200902189021</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,25 +4137,25 @@
         <v>148.2217778297233</v>
       </c>
       <c r="C46" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D46" t="n">
-        <v>117.0052706659983</v>
+        <v>117.0052706659993</v>
       </c>
       <c r="E46" t="n">
         <v>114.8237602943552</v>
       </c>
       <c r="F46" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G46" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H46" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453165</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>254.912795984377</v>
       </c>
       <c r="X46" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y46" t="n">
         <v>186.9744509998808</v>
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C5" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D5" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E5" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F5" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G5" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H5" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I5" t="n">
         <v>0.5500836593369149</v>
@@ -4570,10 +4570,10 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K5" t="n">
+        <v>0.5500836593369149</v>
+      </c>
+      <c r="L5" t="n">
         <v>7.357368943631237</v>
-      </c>
-      <c r="L5" t="n">
-        <v>14.16465422792556</v>
       </c>
       <c r="M5" t="n">
         <v>14.16465422792556</v>
@@ -4582,37 +4582,37 @@
         <v>20.69689768255142</v>
       </c>
       <c r="O5" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P5" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q5" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R5" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S5" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="T5" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="U5" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V5" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="W5" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="X5" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y5" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="C6" t="n">
+        <v>20.55868221764227</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20.55868221764227</v>
+      </c>
+      <c r="E6" t="n">
+        <v>14.44108515774386</v>
+      </c>
+      <c r="F6" t="n">
+        <v>14.44108515774386</v>
+      </c>
+      <c r="G6" t="n">
         <v>7.495584408540386</v>
       </c>
-      <c r="C6" t="n">
+      <c r="H6" t="n">
         <v>7.495584408540386</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7.495584408540386</v>
-      </c>
-      <c r="E6" t="n">
-        <v>7.495584408540386</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.5500836593369149</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.5500836593369149</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.5500836593369149</v>
       </c>
       <c r="I6" t="n">
         <v>0.5500836593369149</v>
@@ -4652,46 +4652,46 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="L6" t="n">
-        <v>5.331414142957057</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M6" t="n">
-        <v>12.13869942725138</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N6" t="n">
-        <v>18.9459847115457</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O6" t="n">
-        <v>25.75326999584003</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P6" t="n">
-        <v>25.75326999584003</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q6" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R6" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S6" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T6" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U6" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="V6" t="n">
-        <v>7.495584408540386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="W6" t="n">
-        <v>7.495584408540386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="X6" t="n">
-        <v>7.495584408540386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.495584408540386</v>
+        <v>27.50418296684575</v>
       </c>
     </row>
     <row r="7">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="C7" t="n">
+        <v>21.38658590694733</v>
+      </c>
+      <c r="D7" t="n">
         <v>14.44108515774386</v>
       </c>
-      <c r="C7" t="n">
+      <c r="E7" t="n">
         <v>14.44108515774386</v>
-      </c>
-      <c r="D7" t="n">
-        <v>7.495584408540386</v>
-      </c>
-      <c r="E7" t="n">
-        <v>7.495584408540386</v>
       </c>
       <c r="F7" t="n">
         <v>7.495584408540386</v>
@@ -4719,10 +4719,10 @@
         <v>7.495584408540386</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="J7" t="n">
         <v>0.5500836593369149</v>
@@ -4731,13 +4731,13 @@
         <v>7.357368943631237</v>
       </c>
       <c r="L7" t="n">
-        <v>13.8896123982571</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="M7" t="n">
         <v>20.69689768255142</v>
       </c>
       <c r="N7" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O7" t="n">
         <v>27.50418296684575</v>
@@ -4764,13 +4764,13 @@
         <v>27.50418296684575</v>
       </c>
       <c r="W7" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="X7" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Y7" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F8" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G8" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H8" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I8" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="J8" t="n">
-        <v>2.565663372396331</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K8" t="n">
-        <v>2.565663372396331</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L8" t="n">
-        <v>2.565663372396331</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M8" t="n">
-        <v>2.565663372396331</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N8" t="n">
-        <v>7.082327113962777</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O8" t="n">
-        <v>13.8896123982571</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P8" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q8" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R8" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S8" t="n">
         <v>20.55868221764227</v>
       </c>
       <c r="T8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="U8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="W8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="X8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="C9" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="D9" t="n">
         <v>20.55868221764227</v>
       </c>
       <c r="E9" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="F9" t="n">
-        <v>20.55868221764227</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="G9" t="n">
-        <v>13.6131814684388</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="H9" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="I9" t="n">
         <v>0.5500836593369149</v>
@@ -4913,22 +4913,22 @@
         <v>27.50418296684575</v>
       </c>
       <c r="T9" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U9" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="V9" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="W9" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="X9" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13.6131814684388</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="C10" t="n">
         <v>13.6131814684388</v>
       </c>
       <c r="D10" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="E10" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="F10" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G10" t="n">
         <v>7.495584408540386</v>
@@ -4968,16 +4968,16 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="L10" t="n">
-        <v>7.357368943631237</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="M10" t="n">
-        <v>14.16465422792556</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="N10" t="n">
-        <v>20.97193951221988</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="O10" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P10" t="n">
         <v>27.50418296684575</v>
@@ -5004,10 +5004,10 @@
         <v>20.55868221764227</v>
       </c>
       <c r="X10" t="n">
-        <v>13.6131814684388</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="Y10" t="n">
-        <v>13.6131814684388</v>
+        <v>20.55868221764227</v>
       </c>
     </row>
     <row r="11">
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112805</v>
       </c>
       <c r="C11" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497862</v>
       </c>
       <c r="D11" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.09342021658</v>
       </c>
       <c r="E11" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943804</v>
       </c>
       <c r="F11" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796655</v>
       </c>
       <c r="G11" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162819</v>
       </c>
       <c r="H11" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I11" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J11" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K11" t="n">
         <v>766.683188695145</v>
@@ -5050,43 +5050,43 @@
         <v>1336.032957050962</v>
       </c>
       <c r="M11" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N11" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O11" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P11" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q11" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R11" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S11" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T11" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U11" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V11" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W11" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437412</v>
       </c>
       <c r="X11" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501801</v>
       </c>
       <c r="Y11" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>89.89576342177176</v>
       </c>
       <c r="I12" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J12" t="n">
         <v>216.5575109835859</v>
       </c>
       <c r="K12" t="n">
-        <v>519.5985603334505</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L12" t="n">
-        <v>973.3971899277778</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M12" t="n">
-        <v>1522.315654538067</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N12" t="n">
-        <v>1522.315654538067</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O12" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P12" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q12" t="n">
         <v>2555.644190323788</v>
@@ -5178,34 +5178,34 @@
         <v>872.8624197502099</v>
       </c>
       <c r="C13" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D13" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E13" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F13" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G13" t="n">
-        <v>251.2943450749443</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H13" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897928</v>
       </c>
       <c r="I13" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J13" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042781</v>
       </c>
       <c r="K13" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443609</v>
       </c>
       <c r="L13" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M13" t="n">
         <v>1285.552079040893</v>
@@ -5214,13 +5214,13 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O13" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P13" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q13" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R13" t="n">
         <v>2487.049233352543</v>
@@ -5241,7 +5241,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X13" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y13" t="n">
         <v>1022.581387254981</v>
@@ -5266,55 +5266,55 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F14" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G14" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H14" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I14" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J14" t="n">
         <v>337.4933016076836</v>
       </c>
       <c r="K14" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L14" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M14" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N14" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O14" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P14" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q14" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R14" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S14" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T14" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U14" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V14" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W14" t="n">
         <v>3175.879079437414</v>
@@ -5354,31 +5354,31 @@
         <v>89.89576342177176</v>
       </c>
       <c r="I15" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J15" t="n">
-        <v>216.5575109835859</v>
+        <v>165.6257438946549</v>
       </c>
       <c r="K15" t="n">
-        <v>519.5985603334505</v>
+        <v>468.6667932445192</v>
       </c>
       <c r="L15" t="n">
-        <v>973.3971899277778</v>
+        <v>922.4654228388466</v>
       </c>
       <c r="M15" t="n">
-        <v>1357.07436680343</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N15" t="n">
-        <v>1934.929714729833</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O15" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q15" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R15" t="n">
         <v>2555.644190323788</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>872.8624197502113</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C16" t="n">
-        <v>735.8557341477731</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D16" t="n">
-        <v>617.668592060906</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E16" t="n">
-        <v>501.6849958039816</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F16" t="n">
-        <v>386.7245456315399</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G16" t="n">
         <v>251.2943450749443</v>
@@ -5433,55 +5433,55 @@
         <v>140.0574709897931</v>
       </c>
       <c r="I16" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J16" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K16" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L16" t="n">
-        <v>857.3827676902789</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M16" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N16" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O16" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P16" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q16" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R16" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S16" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T16" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U16" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V16" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W16" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X16" t="n">
-        <v>1211.444469073044</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y16" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="17">
@@ -5503,7 +5503,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G17" t="n">
         <v>342.8002736162838</v>
@@ -5515,10 +5515,10 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J17" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L17" t="n">
         <v>1336.032957050963</v>
@@ -5533,7 +5533,7 @@
         <v>3311.067850233287</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q17" t="n">
         <v>4142.907144767228</v>
@@ -5594,28 +5594,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J18" t="n">
-        <v>216.5575109835859</v>
+        <v>165.6257438946549</v>
       </c>
       <c r="K18" t="n">
-        <v>216.5575109835859</v>
+        <v>468.6667932445192</v>
       </c>
       <c r="L18" t="n">
-        <v>670.3561405779133</v>
+        <v>922.4654228388466</v>
       </c>
       <c r="M18" t="n">
-        <v>1219.274605188202</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N18" t="n">
-        <v>1797.129953114605</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O18" t="n">
-        <v>2303.534908062855</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P18" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q18" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R18" t="n">
         <v>2555.644190323788</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502098</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H19" t="n">
         <v>140.0574709897931</v>
@@ -5673,34 +5673,34 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M19" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N19" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O19" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P19" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R19" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T19" t="n">
         <v>2144.901839127668</v>
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C20" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D20" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E20" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G20" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H20" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I20" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076843</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951463</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L20" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M20" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O20" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233285</v>
       </c>
       <c r="P20" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R20" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W20" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="21">
@@ -5825,10 +5825,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H21" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I21" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J21" t="n">
         <v>216.5575109835859</v>
@@ -5840,19 +5840,19 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M21" t="n">
-        <v>1357.074366803431</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N21" t="n">
-        <v>1934.929714729833</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O21" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P21" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q21" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R21" t="n">
         <v>2555.644190323788</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315382</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749441</v>
       </c>
       <c r="H22" t="n">
-        <v>140.0574709897933</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I22" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J22" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443613</v>
       </c>
       <c r="L22" t="n">
         <v>857.3827676902788</v>
       </c>
       <c r="M22" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N22" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354972</v>
       </c>
       <c r="O22" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313934</v>
       </c>
       <c r="P22" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028687</v>
       </c>
       <c r="Q22" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597203</v>
       </c>
       <c r="R22" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352541</v>
       </c>
       <c r="S22" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966194</v>
       </c>
       <c r="T22" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U22" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V22" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W22" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y22" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C23" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D23" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E23" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796666</v>
+        <v>725.178257479668</v>
       </c>
       <c r="G23" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J23" t="n">
         <v>337.4933016076836</v>
@@ -6007,19 +6007,19 @@
         <v>3311.067850233287</v>
       </c>
       <c r="P23" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U23" t="n">
         <v>3795.851627400161</v>
@@ -6028,7 +6028,7 @@
         <v>3496.718237382059</v>
       </c>
       <c r="W23" t="n">
-        <v>3175.879079437413</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X23" t="n">
         <v>2834.342818501802</v>
@@ -6062,10 +6062,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H24" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J24" t="n">
         <v>216.5575109835859</v>
@@ -6074,19 +6074,19 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L24" t="n">
-        <v>875.4343898857002</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M24" t="n">
-        <v>875.4343898857002</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N24" t="n">
-        <v>1453.289737812102</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O24" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P24" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q24" t="n">
         <v>2555.644190323788</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502098</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315382</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749441</v>
       </c>
       <c r="H25" t="n">
-        <v>140.0574709897931</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J25" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K25" t="n">
-        <v>459.528702044361</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902785</v>
+        <v>857.3827676902789</v>
       </c>
       <c r="M25" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N25" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O25" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P25" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q25" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597203</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352541</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966194</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U25" t="n">
         <v>1887.747186237501</v>
       </c>
       <c r="V25" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W25" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X25" t="n">
         <v>1211.444469073042</v>
       </c>
       <c r="Y25" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="26">
@@ -6211,13 +6211,13 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E26" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796675</v>
+        <v>725.178257479668</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H26" t="n">
         <v>84.98040897511622</v>
@@ -6226,28 +6226,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L26" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M26" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O26" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P26" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q26" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R26" t="n">
         <v>4249.020448755811</v>
@@ -6259,19 +6259,19 @@
         <v>4017.391409283565</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W26" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="27">
@@ -6308,22 +6308,22 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K27" t="n">
-        <v>216.5575109835859</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L27" t="n">
-        <v>326.5159252754111</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M27" t="n">
-        <v>875.4343898857002</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N27" t="n">
-        <v>1453.289737812102</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O27" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P27" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q27" t="n">
         <v>2555.644190323788</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502127</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477745</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609075</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039831</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315414</v>
+        <v>386.7245456315383</v>
       </c>
       <c r="G28" t="n">
         <v>251.2943450749441</v>
       </c>
       <c r="H28" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897928</v>
       </c>
       <c r="I28" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902789</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M28" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354972</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P28" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966198</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.747186237504</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357086</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.504522645594</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.444469073045</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.581387254984</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G29" t="n">
         <v>342.8002736162838</v>
@@ -6463,28 +6463,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J29" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951441</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L29" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O29" t="n">
         <v>3311.067850233287</v>
       </c>
       <c r="P29" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R29" t="n">
         <v>4249.020448755811</v>
@@ -6496,19 +6496,19 @@
         <v>4017.391409283565</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W29" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="30">
@@ -6545,25 +6545,25 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K30" t="n">
-        <v>216.5575109835859</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L30" t="n">
-        <v>301.7509472448914</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M30" t="n">
-        <v>850.6694118551806</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N30" t="n">
-        <v>1428.524759781583</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O30" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P30" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q30" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R30" t="n">
         <v>2555.644190323788</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502095</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477713</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609042</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039797</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I31" t="n">
         <v>84.98040897511622</v>
@@ -6642,19 +6642,19 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V31" t="n">
         <v>1664.992195357083</v>
@@ -6663,7 +6663,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y31" t="n">
         <v>1022.581387254981</v>
@@ -6688,7 +6688,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796672</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G32" t="n">
         <v>342.8002736162837</v>
@@ -6700,22 +6700,22 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076839</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951441</v>
       </c>
       <c r="L32" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P32" t="n">
         <v>3813.656640612704</v>
@@ -6733,16 +6733,16 @@
         <v>4017.391409283565</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W32" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y32" t="n">
         <v>2476.13298385146</v>
@@ -6788,16 +6788,16 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M33" t="n">
-        <v>973.3971899277776</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N33" t="n">
-        <v>1551.25253785418</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O33" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P33" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q33" t="n">
         <v>2555.644190323788</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502095</v>
+        <v>872.8624197502118</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477713</v>
+        <v>735.8557341477735</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609066</v>
       </c>
       <c r="E34" t="n">
         <v>501.6849958039799</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315382</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749441</v>
       </c>
       <c r="H34" t="n">
         <v>140.057470989793</v>
@@ -6864,46 +6864,46 @@
         <v>459.5287020443614</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902769</v>
+        <v>857.3827676902789</v>
       </c>
       <c r="M34" t="n">
-        <v>1285.552079040892</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N34" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313934</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.455631028687</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597203</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352541</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966194</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127667</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357085</v>
       </c>
       <c r="W34" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645593</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073044</v>
       </c>
       <c r="Y34" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254983</v>
       </c>
     </row>
     <row r="35">
@@ -6925,13 +6925,13 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511606</v>
       </c>
       <c r="I35" t="n">
         <v>84.98040897511622</v>
@@ -6976,13 +6976,13 @@
         <v>3496.71823738206</v>
       </c>
       <c r="W35" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="36">
@@ -7019,22 +7019,22 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K36" t="n">
-        <v>326.5159252754111</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L36" t="n">
-        <v>326.5159252754111</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M36" t="n">
-        <v>875.4343898857002</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N36" t="n">
-        <v>1453.289737812102</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O36" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P36" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q36" t="n">
         <v>2555.644190323788</v>
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2121.462641112805</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C38" t="n">
-        <v>1784.429621497862</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D38" t="n">
-        <v>1458.09342021658</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E38" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796666</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162836</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I38" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J38" t="n">
         <v>337.4933016076839</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951452</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L38" t="n">
         <v>1336.032957050963</v>
@@ -7192,34 +7192,34 @@
         <v>3311.067850233286</v>
       </c>
       <c r="P38" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q38" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R38" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S38" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.718237382058</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W38" t="n">
-        <v>3175.879079437412</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501801</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y38" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H39" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I39" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J39" t="n">
         <v>216.5575109835859</v>
@@ -7259,19 +7259,19 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L39" t="n">
-        <v>973.3971899277776</v>
+        <v>922.4654228388466</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.315654538067</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N39" t="n">
-        <v>1522.315654538067</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O39" t="n">
-        <v>2028.720609486317</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P39" t="n">
-        <v>2415.822165038473</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q39" t="n">
         <v>2555.644190323788</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502086</v>
+        <v>872.8624197502098</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477705</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609036</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039794</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315379</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749439</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H40" t="n">
-        <v>140.0574709897929</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I40" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042786</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443616</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902738</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.552079040889</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N40" t="n">
-        <v>1709.719201354969</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O40" t="n">
-        <v>2087.878830313931</v>
+        <v>2087.878830313934</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.455631028684</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q40" t="n">
-        <v>2529.521427597201</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352539</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966193</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127665</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237499</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357081</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.504522645589</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073041</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y40" t="n">
-        <v>1022.581387254979</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="41">
@@ -7399,46 +7399,46 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G41" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I41" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6831886951454</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L41" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R41" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S41" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T41" t="n">
         <v>4017.391409283565</v>
@@ -7484,10 +7484,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H42" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I42" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J42" t="n">
         <v>216.5575109835859</v>
@@ -7496,19 +7496,19 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L42" t="n">
-        <v>973.3971899277776</v>
+        <v>922.4654228388466</v>
       </c>
       <c r="M42" t="n">
-        <v>1453.289737812102</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N42" t="n">
-        <v>1453.289737812102</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O42" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P42" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q42" t="n">
         <v>2555.644190323788</v>
@@ -7548,16 +7548,16 @@
         <v>872.8624197502099</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G43" t="n">
         <v>251.2943450749443</v>
@@ -7566,16 +7566,16 @@
         <v>140.0574709897931</v>
       </c>
       <c r="I43" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M43" t="n">
         <v>1285.552079040893</v>
@@ -7590,19 +7590,19 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q43" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V43" t="n">
         <v>1664.992195357083</v>
@@ -7639,46 +7639,46 @@
         <v>725.1782574796673</v>
       </c>
       <c r="G44" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H44" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I44" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951452</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L44" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P44" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R44" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U44" t="n">
         <v>3795.851627400162</v>
@@ -7724,7 +7724,7 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I45" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J45" t="n">
         <v>216.5575109835859</v>
@@ -7733,13 +7733,13 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L45" t="n">
-        <v>922.4654228388475</v>
+        <v>922.4654228388466</v>
       </c>
       <c r="M45" t="n">
         <v>1471.383887449136</v>
       </c>
       <c r="N45" t="n">
-        <v>2049.239235375539</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O45" t="n">
         <v>2555.644190323788</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502111</v>
+        <v>872.8624197502108</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477729</v>
+        <v>735.8557341477726</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609059</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039815</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315399</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749458</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H46" t="n">
-        <v>140.0574709897946</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I46" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J46" t="n">
         <v>185.1742787042785</v>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>85.97480228639998</v>
+        <v>85.97480228639999</v>
       </c>
       <c r="K2" t="n">
         <v>77.60291342766286</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>76.29258029502725</v>
+        <v>76.29258029502645</v>
       </c>
       <c r="K5" t="n">
-        <v>69.96781826143658</v>
+        <v>63.09177251972395</v>
       </c>
       <c r="L5" t="n">
-        <v>47.87246158137236</v>
+        <v>47.87246158137089</v>
       </c>
       <c r="M5" t="n">
-        <v>13.62708103366404</v>
+        <v>20.50312677537383</v>
       </c>
       <c r="N5" t="n">
-        <v>15.78539465933497</v>
+        <v>15.78539465933329</v>
       </c>
       <c r="O5" t="n">
-        <v>22.14514397578102</v>
+        <v>29.0211897174909</v>
       </c>
       <c r="P5" t="n">
-        <v>53.74986385444205</v>
+        <v>53.74986385444072</v>
       </c>
       <c r="Q5" t="n">
-        <v>95.8992950250292</v>
+        <v>89.02324928331674</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>64.44726438640424</v>
+        <v>64.44726438640376</v>
       </c>
       <c r="K6" t="n">
-        <v>31.20637244669442</v>
+        <v>31.20637244669361</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.768598960610717</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>7.872945413584389</v>
+        <v>7.872945413583423</v>
       </c>
       <c r="Q6" t="n">
-        <v>57.45488519533777</v>
+        <v>55.68628623472529</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8376,22 +8376,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>71.56745333996727</v>
+        <v>71.56745333996678</v>
       </c>
       <c r="L7" t="n">
-        <v>59.17307849853242</v>
+        <v>59.45089852849995</v>
       </c>
       <c r="M7" t="n">
-        <v>59.01766150325888</v>
+        <v>58.73984147329006</v>
       </c>
       <c r="N7" t="n">
-        <v>49.84095556819794</v>
+        <v>42.96490982648587</v>
       </c>
       <c r="O7" t="n">
-        <v>60.20331993088794</v>
+        <v>67.07936567259878</v>
       </c>
       <c r="P7" t="n">
-        <v>70.76885694323158</v>
+        <v>70.76885694323107</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>71.7884112157469</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K8" t="n">
         <v>53.28984570098882</v>
       </c>
       <c r="L8" t="n">
-        <v>28.83625887535973</v>
+        <v>35.71230461707117</v>
       </c>
       <c r="M8" t="n">
-        <v>0.09656339947139259</v>
+        <v>6.972609141182829</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>2.035939104100422</v>
       </c>
       <c r="O8" t="n">
         <v>16.03796872534122</v>
       </c>
       <c r="P8" t="n">
-        <v>49.5450308567861</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q8" t="n">
-        <v>87.5780165662824</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8616,19 +8616,19 @@
         <v>60.67557455063191</v>
       </c>
       <c r="L10" t="n">
-        <v>54.31201483046912</v>
+        <v>47.43596908875769</v>
       </c>
       <c r="M10" t="n">
-        <v>53.59942916834656</v>
+        <v>53.32160913837842</v>
       </c>
       <c r="N10" t="n">
         <v>44.55155668786512</v>
       </c>
       <c r="O10" t="n">
-        <v>61.91592966262678</v>
+        <v>62.19374969259492</v>
       </c>
       <c r="P10" t="n">
-        <v>66.5883684560963</v>
+        <v>73.46441419780774</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>-1.008970684779342e-12</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9181,7 +9181,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9655,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -22561,7 +22561,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>14.18259021116549</v>
+        <v>14.18259021116552</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>7.192466536154623</v>
+        <v>7.192466536154614</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.904254531837068e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2.160049916710705e-12</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>2.700062395888381e-12</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>683523.7109189018</v>
+        <v>683523.7109189013</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>668422.3512266608</v>
+        <v>668422.3512266605</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>668422.3512266608</v>
+        <v>668422.3512266605</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>668422.3512266609</v>
+        <v>668422.3512266608</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>668422.3512266609</v>
+        <v>668422.3512266608</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>668422.3512266608</v>
+        <v>668422.3512266609</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>668422.3512266608</v>
+        <v>668422.3512266609</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>668422.3512266608</v>
+        <v>668422.3512266605</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>778397.2273203128</v>
+        <v>778397.2273203126</v>
       </c>
       <c r="C2" t="n">
-        <v>779445.7870516056</v>
+        <v>779445.7870516054</v>
       </c>
       <c r="D2" t="n">
-        <v>779451.6140944873</v>
+        <v>779451.6140944872</v>
       </c>
       <c r="E2" t="n">
-        <v>779989.6813710687</v>
+        <v>779989.6813710685</v>
       </c>
       <c r="F2" t="n">
         <v>779989.6813710693</v>
       </c>
       <c r="G2" t="n">
-        <v>779989.6813710694</v>
+        <v>779989.681371069</v>
       </c>
       <c r="H2" t="n">
-        <v>779989.6813710687</v>
+        <v>779989.681371069</v>
       </c>
       <c r="I2" t="n">
         <v>779989.6813710687</v>
       </c>
       <c r="J2" t="n">
+        <v>779989.681371069</v>
+      </c>
+      <c r="K2" t="n">
+        <v>779989.681371069</v>
+      </c>
+      <c r="L2" t="n">
         <v>779989.6813710693</v>
       </c>
-      <c r="K2" t="n">
-        <v>779989.6813710693</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>779989.6813710692</v>
       </c>
-      <c r="M2" t="n">
-        <v>779989.6813710693</v>
-      </c>
       <c r="N2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.681371069</v>
       </c>
       <c r="O2" t="n">
-        <v>779989.6813710687</v>
+        <v>779989.6813710683</v>
       </c>
       <c r="P2" t="n">
         <v>779989.6813710692</v>
@@ -26368,19 +26368,19 @@
         <v>268497.8903749795</v>
       </c>
       <c r="C3" t="n">
-        <v>28061.49787655168</v>
+        <v>28061.4978765538</v>
       </c>
       <c r="D3" t="n">
-        <v>16415.66152288856</v>
+        <v>16415.66152288657</v>
       </c>
       <c r="E3" t="n">
         <v>1105223.466315349</v>
       </c>
       <c r="F3" t="n">
-        <v>1.70530256582424e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.246394276677165e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25288.16188177122</v>
+        <v>25288.16188177108</v>
       </c>
       <c r="K3" t="n">
-        <v>1769.674140452756</v>
+        <v>1769.674140452818</v>
       </c>
       <c r="L3" t="n">
-        <v>5.968558980384842e-11</v>
+        <v>5.684341886080801e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>263004.6848749183</v>
+        <v>263004.6848749182</v>
       </c>
       <c r="N3" t="n">
-        <v>4.778166839969345e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>25288.16188177116</v>
+        <v>25288.16188177106</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>364860.5094155335</v>
       </c>
       <c r="C4" t="n">
-        <v>357249.1373947116</v>
+        <v>357249.1373947109</v>
       </c>
       <c r="D4" t="n">
         <v>352333.7155000435</v>
       </c>
       <c r="E4" t="n">
-        <v>43399.53897605927</v>
+        <v>43399.53897605925</v>
       </c>
       <c r="F4" t="n">
-        <v>43399.53897605929</v>
+        <v>43399.53897605922</v>
       </c>
       <c r="G4" t="n">
+        <v>43399.53897605925</v>
+      </c>
+      <c r="H4" t="n">
         <v>43399.53897605931</v>
       </c>
-      <c r="H4" t="n">
-        <v>43399.5389760593</v>
-      </c>
       <c r="I4" t="n">
-        <v>43399.53897605932</v>
+        <v>43399.53897605931</v>
       </c>
       <c r="J4" t="n">
-        <v>43399.53897605937</v>
+        <v>43399.53897605928</v>
       </c>
       <c r="K4" t="n">
-        <v>43399.53897605927</v>
+        <v>43399.53897605931</v>
       </c>
       <c r="L4" t="n">
-        <v>43399.53897605931</v>
+        <v>43399.53897605934</v>
       </c>
       <c r="M4" t="n">
-        <v>43399.53897605927</v>
+        <v>43399.53897605926</v>
       </c>
       <c r="N4" t="n">
-        <v>43399.53897605938</v>
+        <v>43399.53897605928</v>
       </c>
       <c r="O4" t="n">
-        <v>43399.53897605927</v>
+        <v>43399.53897605928</v>
       </c>
       <c r="P4" t="n">
-        <v>43399.53897605934</v>
+        <v>43399.53897605928</v>
       </c>
     </row>
     <row r="5">
@@ -26472,28 +26472,28 @@
         <v>39701.87879260092</v>
       </c>
       <c r="C5" t="n">
-        <v>40738.55848649647</v>
+        <v>40738.55848649652</v>
       </c>
       <c r="D5" t="n">
         <v>41156.4187984472</v>
       </c>
       <c r="E5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215525</v>
       </c>
       <c r="F5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215525</v>
       </c>
       <c r="G5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="H5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="I5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="J5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="K5" t="n">
         <v>95106.43410215528</v>
@@ -26502,16 +26502,16 @@
         <v>95106.43410215528</v>
       </c>
       <c r="M5" t="n">
+        <v>95106.43410215527</v>
+      </c>
+      <c r="N5" t="n">
         <v>95106.43410215528</v>
       </c>
-      <c r="N5" t="n">
-        <v>95106.43410215527</v>
-      </c>
       <c r="O5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215525</v>
       </c>
       <c r="P5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
     </row>
     <row r="6">
@@ -26521,25 +26521,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>105336.9487371989</v>
+        <v>105295.0420516525</v>
       </c>
       <c r="C6" t="n">
-        <v>353396.5932938459</v>
+        <v>353382.2802854372</v>
       </c>
       <c r="D6" t="n">
-        <v>369545.818273108</v>
+        <v>369531.6586079367</v>
       </c>
       <c r="E6" t="n">
-        <v>-463739.7580224952</v>
+        <v>-463739.7580224951</v>
       </c>
       <c r="F6" t="n">
-        <v>641483.7082928547</v>
+        <v>641483.7082928548</v>
       </c>
       <c r="G6" t="n">
-        <v>641483.7082928551</v>
+        <v>641483.7082928544</v>
       </c>
       <c r="H6" t="n">
-        <v>641483.7082928541</v>
+        <v>641483.7082928545</v>
       </c>
       <c r="I6" t="n">
         <v>641483.7082928541</v>
@@ -26548,19 +26548,19 @@
         <v>616195.5464110834</v>
       </c>
       <c r="K6" t="n">
-        <v>639714.034152402</v>
+        <v>639714.0341524016</v>
       </c>
       <c r="L6" t="n">
-        <v>641483.7082928545</v>
+        <v>641483.7082928547</v>
       </c>
       <c r="M6" t="n">
         <v>378479.0234179365</v>
       </c>
       <c r="N6" t="n">
-        <v>641483.7082928541</v>
+        <v>641483.7082928545</v>
       </c>
       <c r="O6" t="n">
-        <v>616195.546411083</v>
+        <v>616195.5464110827</v>
       </c>
       <c r="P6" t="n">
         <v>641483.7082928546</v>
@@ -26694,22 +26694,22 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F2" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H2" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="I2" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="J2" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K2" t="n">
         <v>31.61020235221395</v>
@@ -26718,16 +26718,16 @@
         <v>31.61020235221402</v>
       </c>
       <c r="M2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N2" t="n">
-        <v>31.61020235221415</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="O2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="P2" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="3">
@@ -26740,7 +26740,7 @@
         <v>278.6366418624276</v>
       </c>
       <c r="C3" t="n">
-        <v>307.0135277706615</v>
+        <v>307.0135277706638</v>
       </c>
       <c r="D3" t="n">
         <v>326.1814319885848</v>
@@ -26798,16 +26798,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="F4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="G4" t="n">
         <v>1062.255112188953</v>
       </c>
       <c r="H4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="I4" t="n">
         <v>1062.255112188953</v>
@@ -26825,10 +26825,10 @@
         <v>1062.255112188953</v>
       </c>
       <c r="N4" t="n">
+        <v>1062.255112188953</v>
+      </c>
+      <c r="O4" t="n">
         <v>1062.255112188952</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1062.255112188953</v>
       </c>
       <c r="P4" t="n">
         <v>1062.255112188953</v>
@@ -26916,37 +26916,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F2" t="n">
-        <v>2.131628207280301e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.460698725481052e-14</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26962,13 +26962,13 @@
         <v>278.6366418624276</v>
       </c>
       <c r="C3" t="n">
-        <v>28.37688590823388</v>
+        <v>28.37688590823621</v>
       </c>
       <c r="D3" t="n">
-        <v>19.1679042179233</v>
+        <v>19.16790421792097</v>
       </c>
       <c r="E3" t="n">
-        <v>951.9784386315382</v>
+        <v>951.978438631538</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27026,10 +27026,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27153,22 +27153,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K2" t="n">
-        <v>2.131628207280301e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>62.94669922618533</v>
+        <v>62.94669922618534</v>
       </c>
       <c r="S3" t="n">
         <v>160.5508486671644</v>
@@ -27560,7 +27560,7 @@
         <v>140.3401468734729</v>
       </c>
       <c r="J4" t="n">
-        <v>57.83529218611377</v>
+        <v>57.83529218611378</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>44.08791033046781</v>
+        <v>44.08791033046782</v>
       </c>
       <c r="R4" t="n">
         <v>154.7009843173077</v>
@@ -27624,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>375.0543243305503</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>326.8347929045861</v>
+        <v>326.834792904586</v>
       </c>
       <c r="I5" t="n">
-        <v>156.8370000212937</v>
+        <v>162.8934211105928</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>72.33971688055142</v>
+        <v>65.4636711388394</v>
       </c>
       <c r="S5" t="n">
-        <v>180.8951619919782</v>
+        <v>174.8387409026786</v>
       </c>
       <c r="T5" t="n">
-        <v>217.6930285879864</v>
+        <v>217.6930285879863</v>
       </c>
       <c r="U5" t="n">
         <v>251.246914888855</v>
@@ -27697,25 +27697,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>165.8324532466043</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>151.5886593661015</v>
       </c>
       <c r="F6" t="n">
-        <v>138.1931666516724</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.6831484431002</v>
+        <v>129.8071027013887</v>
       </c>
       <c r="H6" t="n">
         <v>105.8576726501663</v>
       </c>
       <c r="I6" t="n">
-        <v>66.66025367217269</v>
+        <v>59.78420793046108</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,19 +27742,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>52.28100068337051</v>
+        <v>59.15704642508164</v>
       </c>
       <c r="S6" t="n">
-        <v>159.4171117631892</v>
+        <v>159.4171117631891</v>
       </c>
       <c r="T6" t="n">
-        <v>191.4465582468313</v>
+        <v>197.5029793361307</v>
       </c>
       <c r="U6" t="n">
         <v>225.8979367704412</v>
       </c>
       <c r="V6" t="n">
-        <v>225.9245414077138</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>161.1904000093284</v>
       </c>
       <c r="D7" t="n">
         <v>141.7394272765009</v>
@@ -27785,19 +27785,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>138.5450022812198</v>
       </c>
       <c r="G7" t="n">
         <v>167.4373484067412</v>
       </c>
       <c r="H7" t="n">
-        <v>150.4288443040936</v>
+        <v>157.304890045805</v>
       </c>
       <c r="I7" t="n">
-        <v>138.8012823065149</v>
+        <v>138.8012823065147</v>
       </c>
       <c r="J7" t="n">
-        <v>54.21747183023943</v>
+        <v>47.3414260885277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>39.80300055832451</v>
+        <v>39.80300055832415</v>
       </c>
       <c r="R7" t="n">
-        <v>152.400130584486</v>
+        <v>152.4001305844858</v>
       </c>
       <c r="S7" t="n">
-        <v>214.3683204511303</v>
+        <v>214.3683204511302</v>
       </c>
       <c r="T7" t="n">
         <v>225.5800753618518</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>279.6469525948796</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>212.5282322627954</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27873,7 +27873,7 @@
         <v>326.0456339133427</v>
       </c>
       <c r="I8" t="n">
-        <v>153.8662638308958</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>60.62324555761737</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S8" t="n">
-        <v>179.1392278518137</v>
+        <v>172.2631821101022</v>
       </c>
       <c r="T8" t="n">
-        <v>217.3557120022016</v>
+        <v>211.2992909129022</v>
       </c>
       <c r="U8" t="n">
         <v>251.2407503367447</v>
@@ -27937,22 +27937,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>140.5690198229273</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>150.7690347136895</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>138.1931666516724</v>
       </c>
       <c r="G9" t="n">
-        <v>129.7658736243917</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H9" t="n">
-        <v>99.40306547513228</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I9" t="n">
-        <v>58.36469804262448</v>
+        <v>59.18432269503649</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27985,7 +27985,7 @@
         <v>158.6512997408977</v>
       </c>
       <c r="T9" t="n">
-        <v>190.4607514814356</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U9" t="n">
         <v>225.8952243311651</v>
@@ -28013,10 +28013,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>160.3707753569164</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>142.5590519289129</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28025,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>161.3463622442619</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H10" t="n">
         <v>156.9975751224423</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>218.8336096473257</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C11" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D11" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E11" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F11" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G11" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H11" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I11" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T11" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U11" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V11" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W11" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X11" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y11" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C13" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D13" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E13" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F13" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G13" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H13" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I13" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J13" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K13" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L13" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M13" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N13" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O13" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P13" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q13" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R13" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S13" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T13" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U13" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V13" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W13" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X13" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y13" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C14" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D14" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E14" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F14" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G14" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H14" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I14" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T14" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U14" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V14" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W14" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X14" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y14" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C16" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D16" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E16" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F16" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G16" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H16" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I16" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J16" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K16" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L16" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M16" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N16" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O16" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P16" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q16" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221424</v>
       </c>
       <c r="R16" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S16" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T16" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U16" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V16" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W16" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X16" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y16" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="17">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I17" t="n">
         <v>12.38037836605497</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221288</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="I20" t="n">
         <v>12.38037836605497</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221207</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="I23" t="n">
         <v>12.38037836605497</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221363</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221149</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
     </row>
     <row r="26">
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605497</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="29">
@@ -29936,7 +29936,7 @@
         <v>31.61020235221402</v>
       </c>
       <c r="L34" t="n">
-        <v>31.6102023522119</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="M34" t="n">
         <v>31.61020235221402</v>
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605497</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="38">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221415</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221415</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221415</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221415</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221415</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221415</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221415</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605497</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221415</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221415</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221415</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221415</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221415</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221415</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221415</v>
+        <v>31.61020235221399</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221415</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221415</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221415</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221415</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221415</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221415</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221415</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221415</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221415</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221415</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="L40" t="n">
-        <v>31.6102023522086</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221415</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221415</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221415</v>
+        <v>31.61020235221253</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221415</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221415</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221415</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221415</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221415</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221415</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221415</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221415</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221415</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221415</v>
+        <v>31.61020235221399</v>
       </c>
     </row>
     <row r="41">
@@ -30459,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605497</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I44" t="n">
-        <v>12.38037836605503</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
   </sheetData>
@@ -31050,7 +31050,7 @@
         <v>43.1844789362864</v>
       </c>
       <c r="J2" t="n">
-        <v>95.07110224028631</v>
+        <v>95.07110224028629</v>
       </c>
       <c r="K2" t="n">
         <v>142.4869376173177</v>
@@ -31123,7 +31123,7 @@
         <v>0.5993316447606933</v>
       </c>
       <c r="H3" t="n">
-        <v>5.788281937557223</v>
+        <v>5.788281937557224</v>
       </c>
       <c r="I3" t="n">
         <v>20.63488338320808</v>
@@ -31162,7 +31162,7 @@
         <v>2.415727111995952</v>
       </c>
       <c r="U3" t="n">
-        <v>0.03942971347109826</v>
+        <v>0.03942971347109827</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,7 +31199,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5024595181125743</v>
+        <v>0.5024595181125744</v>
       </c>
       <c r="H4" t="n">
         <v>4.467321897400891</v>
@@ -31208,7 +31208,7 @@
         <v>15.11032805378542</v>
       </c>
       <c r="J4" t="n">
-        <v>35.52388793055901</v>
+        <v>35.523887930559</v>
       </c>
       <c r="K4" t="n">
         <v>58.37666037707908</v>
@@ -31229,7 +31229,7 @@
         <v>60.77019480881533</v>
       </c>
       <c r="Q4" t="n">
-        <v>42.07413292122657</v>
+        <v>42.07413292122656</v>
       </c>
       <c r="R4" t="n">
         <v>22.59240705986175</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.23422523726899</v>
+        <v>1.234225237268999</v>
       </c>
       <c r="H5" t="n">
-        <v>12.64000921118105</v>
+        <v>12.64000921118114</v>
       </c>
       <c r="I5" t="n">
-        <v>47.58246845981278</v>
+        <v>47.58246845981314</v>
       </c>
       <c r="J5" t="n">
-        <v>104.753324231659</v>
+        <v>104.7533242316598</v>
       </c>
       <c r="K5" t="n">
-        <v>156.9980785252554</v>
+        <v>156.9980785252566</v>
       </c>
       <c r="L5" t="n">
-        <v>194.7699991303263</v>
+        <v>194.7699991303278</v>
       </c>
       <c r="M5" t="n">
-        <v>216.7191521936087</v>
+        <v>216.7191521936103</v>
       </c>
       <c r="N5" t="n">
-        <v>220.2258946489992</v>
+        <v>220.2258946490009</v>
       </c>
       <c r="O5" t="n">
-        <v>207.9530674459057</v>
+        <v>207.9530674459073</v>
       </c>
       <c r="P5" t="n">
-        <v>177.4831319008275</v>
+        <v>177.4831319008288</v>
       </c>
       <c r="Q5" t="n">
-        <v>133.2824405911317</v>
+        <v>133.2824405911327</v>
       </c>
       <c r="R5" t="n">
-        <v>77.52940106059826</v>
+        <v>77.52940106059884</v>
       </c>
       <c r="S5" t="n">
-        <v>28.12490759426714</v>
+        <v>28.12490759426735</v>
       </c>
       <c r="T5" t="n">
-        <v>5.402820976145006</v>
+        <v>5.402820976145048</v>
       </c>
       <c r="U5" t="n">
-        <v>0.09873801898151918</v>
+        <v>0.09873801898151993</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,22 +31357,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6603687201104794</v>
+        <v>0.6603687201104844</v>
       </c>
       <c r="H6" t="n">
-        <v>6.377771586330158</v>
+        <v>6.377771586330206</v>
       </c>
       <c r="I6" t="n">
-        <v>22.73637917924239</v>
+        <v>22.73637917924256</v>
       </c>
       <c r="J6" t="n">
-        <v>62.39036228026245</v>
+        <v>62.39036228026293</v>
       </c>
       <c r="K6" t="n">
-        <v>106.6350665276646</v>
+        <v>106.6350665276654</v>
       </c>
       <c r="L6" t="n">
-        <v>143.3840065310056</v>
+        <v>143.3840065310067</v>
       </c>
       <c r="M6" t="n">
         <v>149.0100796637298</v>
@@ -31384,22 +31384,22 @@
         <v>149.4722901861559</v>
       </c>
       <c r="P6" t="n">
-        <v>126.1014620007459</v>
+        <v>126.1014620007468</v>
       </c>
       <c r="Q6" t="n">
-        <v>84.29548785129559</v>
+        <v>84.29548785129623</v>
       </c>
       <c r="R6" t="n">
-        <v>41.00078772756119</v>
+        <v>41.00078772756149</v>
       </c>
       <c r="S6" t="n">
-        <v>12.26605934064859</v>
+        <v>12.26605934064868</v>
       </c>
       <c r="T6" t="n">
-        <v>2.661749358690923</v>
+        <v>2.661749358690943</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04344531053358419</v>
+        <v>0.04344531053358452</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5536309517175863</v>
+        <v>0.5536309517175905</v>
       </c>
       <c r="H7" t="n">
-        <v>4.922282461634543</v>
+        <v>4.92228246163458</v>
       </c>
       <c r="I7" t="n">
-        <v>16.64919262074342</v>
+        <v>16.64919262074354</v>
       </c>
       <c r="J7" t="n">
-        <v>39.14170828643334</v>
+        <v>39.14170828643364</v>
       </c>
       <c r="K7" t="n">
-        <v>64.32185057227954</v>
+        <v>64.32185057228004</v>
       </c>
       <c r="L7" t="n">
-        <v>82.30982349444915</v>
+        <v>82.30982349444977</v>
       </c>
       <c r="M7" t="n">
-        <v>86.78416818605761</v>
+        <v>86.78416818605828</v>
       </c>
       <c r="N7" t="n">
-        <v>84.72063463874669</v>
+        <v>84.72063463874733</v>
       </c>
       <c r="O7" t="n">
-        <v>78.25321852095485</v>
+        <v>78.25321852095544</v>
       </c>
       <c r="P7" t="n">
-        <v>66.95914710591603</v>
+        <v>66.95914710591654</v>
       </c>
       <c r="Q7" t="n">
-        <v>46.35904269336988</v>
+        <v>46.35904269337023</v>
       </c>
       <c r="R7" t="n">
-        <v>24.89326079268346</v>
+        <v>24.89326079268365</v>
       </c>
       <c r="S7" t="n">
-        <v>9.648277585841932</v>
+        <v>9.648277585842004</v>
       </c>
       <c r="T7" t="n">
-        <v>2.365514066429686</v>
+        <v>2.365514066429704</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03019805191186837</v>
+        <v>0.0301980519118686</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H11" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I11" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J11" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K11" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L11" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M11" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N11" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O11" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P11" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q11" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R11" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S11" t="n">
         <v>117.0897208110796</v>
@@ -31794,7 +31794,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H12" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I12" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J12" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K12" t="n">
-        <v>443.9435090247271</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L12" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M12" t="n">
-        <v>696.597129487967</v>
+        <v>645.1509001052084</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O12" t="n">
-        <v>584.3932527497834</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P12" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T12" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31919,10 +31919,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J13" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K13" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L13" t="n">
         <v>342.6725659692048</v>
@@ -31934,22 +31934,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O13" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P13" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q13" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R13" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S13" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T13" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U13" t="n">
         <v>0.1257206430118155</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H14" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I14" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J14" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K14" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L14" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M14" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N14" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O14" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P14" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q14" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R14" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S14" t="n">
         <v>117.0897208110796</v>
@@ -32031,7 +32031,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H15" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I15" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J15" t="n">
-        <v>259.7437903115856</v>
+        <v>208.297560928827</v>
       </c>
       <c r="K15" t="n">
-        <v>443.9435090247271</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L15" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M15" t="n">
-        <v>529.6867378368186</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N15" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P15" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T15" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32156,10 +32156,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J16" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K16" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L16" t="n">
         <v>342.6725659692048</v>
@@ -32171,22 +32171,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O16" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P16" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q16" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R16" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S16" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T16" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U16" t="n">
         <v>0.1257206430118155</v>
@@ -32314,10 +32314,10 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J18" t="n">
-        <v>259.7437903115855</v>
+        <v>208.297560928827</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L18" t="n">
         <v>596.9368339155584</v>
@@ -32332,13 +32332,13 @@
         <v>654.1164009578283</v>
       </c>
       <c r="P18" t="n">
-        <v>363.6151187581826</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>51.06610426486996</v>
@@ -32560,22 +32560,22 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M21" t="n">
-        <v>529.6867378368194</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N21" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P21" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>51.06610426486996</v>
@@ -32794,22 +32794,22 @@
         <v>443.943509024727</v>
       </c>
       <c r="L24" t="n">
-        <v>497.9845106407327</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N24" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O24" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P24" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33028,13 +33028,13 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L27" t="n">
-        <v>249.6234851251522</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M27" t="n">
-        <v>696.5971294879669</v>
+        <v>645.1509001052084</v>
       </c>
       <c r="N27" t="n">
         <v>715.0339827160628</v>
@@ -33043,10 +33043,10 @@
         <v>654.1164009578283</v>
       </c>
       <c r="P27" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33265,13 +33265,13 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L30" t="n">
-        <v>224.608355801395</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M30" t="n">
-        <v>696.5971294879669</v>
+        <v>645.1509001052084</v>
       </c>
       <c r="N30" t="n">
         <v>715.0339827160628</v>
@@ -33280,13 +33280,13 @@
         <v>654.1164009578283</v>
       </c>
       <c r="P30" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>51.06610426486996</v>
@@ -33508,19 +33508,19 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>645.1509001052084</v>
       </c>
       <c r="N33" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O33" t="n">
-        <v>555.1640776830027</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P33" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33739,13 +33739,13 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K36" t="n">
-        <v>248.910544319637</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M36" t="n">
-        <v>696.5971294879669</v>
+        <v>645.1509001052084</v>
       </c>
       <c r="N36" t="n">
         <v>715.0339827160628</v>
@@ -33754,10 +33754,10 @@
         <v>654.1164009578283</v>
       </c>
       <c r="P36" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33979,22 +33979,22 @@
         <v>443.943509024727</v>
       </c>
       <c r="L39" t="n">
-        <v>596.9368339155584</v>
+        <v>545.4906045327998</v>
       </c>
       <c r="M39" t="n">
         <v>696.5971294879669</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O39" t="n">
         <v>654.1164009578283</v>
       </c>
       <c r="P39" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>281.2161430610879</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34216,22 +34216,22 @@
         <v>443.943509024727</v>
       </c>
       <c r="L42" t="n">
-        <v>596.9368339155584</v>
+        <v>545.4906045327998</v>
       </c>
       <c r="M42" t="n">
-        <v>626.8739812799222</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O42" t="n">
         <v>654.1164009578283</v>
       </c>
       <c r="P42" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34359,40 +34359,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.138331138171343</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H44" t="n">
-        <v>52.62293376879728</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I44" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J44" t="n">
-        <v>436.1094324383704</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K44" t="n">
-        <v>653.6149895171635</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L44" t="n">
-        <v>810.8671910869749</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M44" t="n">
-        <v>902.2459874654295</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N44" t="n">
-        <v>916.845270811759</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O44" t="n">
-        <v>865.7509905565676</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P44" t="n">
-        <v>738.8984405829624</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q44" t="n">
-        <v>554.881956697201</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R44" t="n">
-        <v>322.7706933581559</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S44" t="n">
         <v>117.0897208110796</v>
@@ -34441,28 +34441,28 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H45" t="n">
-        <v>26.551962595335</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I45" t="n">
-        <v>94.65617909781098</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J45" t="n">
         <v>259.7437903115855</v>
       </c>
       <c r="K45" t="n">
-        <v>443.9435090247269</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L45" t="n">
-        <v>545.4906045328007</v>
+        <v>545.4906045327998</v>
       </c>
       <c r="M45" t="n">
-        <v>696.5971294879668</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N45" t="n">
-        <v>715.0339827160627</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O45" t="n">
-        <v>654.1164009578282</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.304878455216614</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H46" t="n">
-        <v>20.49246481092591</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I46" t="n">
-        <v>69.3139811805142</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J46" t="n">
         <v>162.9549067838146</v>
@@ -34532,31 +34532,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L46" t="n">
-        <v>342.6725659692047</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M46" t="n">
-        <v>361.3001745754552</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N46" t="n">
-        <v>352.7092639696481</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O46" t="n">
-        <v>325.7840929246175</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P46" t="n">
-        <v>278.7645724381984</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q46" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R46" t="n">
-        <v>103.6357167227397</v>
+        <v>103.6357167227398</v>
       </c>
       <c r="S46" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T46" t="n">
-        <v>9.848117035925531</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U46" t="n">
         <v>0.1257206430118155</v>
@@ -34938,25 +34938,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N5" t="n">
         <v>6.598225711743297</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35020,7 +35020,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>4.829626751131457</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="M6" t="n">
         <v>6.876045741711437</v>
@@ -35035,7 +35035,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.76859896061184</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="L7" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M7" t="n">
+        <v>6.598225711743297</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="N7" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>2.035939104100421</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N8" t="n">
-        <v>4.562286607642875</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="O8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="P8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35336,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="N10" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O10" t="n">
-        <v>6.598225711743297</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K11" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L11" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M11" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N11" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O11" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P11" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q11" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R11" t="n">
         <v>107.1851555440239</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>132.9061636449189</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K12" t="n">
-        <v>306.1020700503681</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L12" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M12" t="n">
-        <v>554.4630955659486</v>
+        <v>503.01686618319</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O12" t="n">
-        <v>441.7970083053389</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P12" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,19 +35570,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K13" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L13" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M13" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N13" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O13" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P13" t="n">
         <v>307.6533340553059</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K14" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L14" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M14" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N14" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O14" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P14" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q14" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R14" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440229</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>132.9061636449189</v>
+        <v>81.45993426216029</v>
       </c>
       <c r="K15" t="n">
-        <v>306.1020700503681</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L15" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M15" t="n">
-        <v>387.5527039148003</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N15" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P15" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K16" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L16" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M16" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N16" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O16" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P16" t="n">
         <v>307.6533340553059</v>
       </c>
       <c r="Q16" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641584</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35901,7 +35901,7 @@
         <v>635.6527791348809</v>
       </c>
       <c r="P17" t="n">
-        <v>507.6654448276938</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q17" t="n">
         <v>332.5762668227516</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>132.9061636449188</v>
+        <v>81.45993426216026</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L18" t="n">
         <v>458.3824541356842</v>
@@ -35980,13 +35980,13 @@
         <v>511.5201565133839</v>
       </c>
       <c r="P18" t="n">
-        <v>229.6407113438524</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36044,16 +36044,16 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K19" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L19" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M19" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O19" t="n">
         <v>381.9794231908712</v>
@@ -36062,7 +36062,7 @@
         <v>307.6533340553059</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.450299564157</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36208,22 +36208,22 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M21" t="n">
-        <v>387.552703914801</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N21" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P21" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K22" t="n">
         <v>277.1256801414978</v>
@@ -36287,19 +36287,19 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M22" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N22" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010888</v>
       </c>
       <c r="O22" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P22" t="n">
         <v>307.6533340553059</v>
       </c>
       <c r="Q22" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,7 +36363,7 @@
         <v>433.5251384721831</v>
       </c>
       <c r="L23" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169876</v>
       </c>
       <c r="M23" t="n">
         <v>671.8997542381569</v>
@@ -36375,7 +36375,7 @@
         <v>635.6527791348809</v>
       </c>
       <c r="P23" t="n">
-        <v>507.6654448276938</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q23" t="n">
         <v>332.5762668227516</v>
@@ -36442,22 +36442,22 @@
         <v>306.102070050368</v>
       </c>
       <c r="L24" t="n">
-        <v>359.4301308608585</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N24" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O24" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P24" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K25" t="n">
-        <v>277.1256801414974</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L25" t="n">
         <v>401.8727935817349</v>
@@ -36530,13 +36530,13 @@
         <v>428.4516387010908</v>
       </c>
       <c r="O25" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P25" t="n">
         <v>307.6533340553059</v>
       </c>
       <c r="Q25" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641556</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>332.5762668227516</v>
       </c>
       <c r="R26" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440247</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L27" t="n">
-        <v>111.069105345278</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M27" t="n">
-        <v>554.4630955659486</v>
+        <v>503.01686618319</v>
       </c>
       <c r="N27" t="n">
         <v>583.6922706327296</v>
@@ -36691,10 +36691,10 @@
         <v>511.5201565133839</v>
       </c>
       <c r="P27" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L28" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M28" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N28" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O28" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P28" t="n">
-        <v>307.653334055306</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q28" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>332.5762668227516</v>
       </c>
       <c r="R29" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440247</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L30" t="n">
-        <v>86.05397602152078</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M30" t="n">
-        <v>554.4630955659486</v>
+        <v>503.01686618319</v>
       </c>
       <c r="N30" t="n">
         <v>583.6922706327296</v>
@@ -36928,13 +36928,13 @@
         <v>511.5201565133839</v>
       </c>
       <c r="P30" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K31" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L31" t="n">
         <v>401.8727935817349</v>
@@ -37156,19 +37156,19 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>503.01686618319</v>
       </c>
       <c r="N33" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O33" t="n">
-        <v>412.5678332385582</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P33" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37232,7 +37232,7 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L34" t="n">
-        <v>401.8727935817328</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M34" t="n">
         <v>432.4942538895099</v>
@@ -37387,13 +37387,13 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K36" t="n">
-        <v>111.069105345278</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M36" t="n">
-        <v>554.4630955659486</v>
+        <v>503.01686618319</v>
       </c>
       <c r="N36" t="n">
         <v>583.6922706327296</v>
@@ -37402,10 +37402,10 @@
         <v>511.5201565133839</v>
       </c>
       <c r="P36" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37469,13 +37469,13 @@
         <v>277.1256801414977</v>
       </c>
       <c r="L37" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M37" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N37" t="n">
-        <v>428.4516387010906</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O37" t="n">
         <v>381.9794231908712</v>
@@ -37627,22 +37627,22 @@
         <v>306.102070050368</v>
       </c>
       <c r="L39" t="n">
-        <v>458.3824541356842</v>
+        <v>406.9362247529257</v>
       </c>
       <c r="M39" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O39" t="n">
         <v>511.5201565133839</v>
       </c>
       <c r="P39" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>141.2343689750664</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>101.205929019356</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414979</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L40" t="n">
-        <v>401.8727935817295</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M40" t="n">
-        <v>432.49425388951</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N40" t="n">
-        <v>428.4516387010909</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O40" t="n">
-        <v>381.9794231908714</v>
+        <v>381.9794231908698</v>
       </c>
       <c r="P40" t="n">
-        <v>307.6533340553061</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q40" t="n">
-        <v>138.4502995641583</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37864,22 +37864,22 @@
         <v>306.102070050368</v>
       </c>
       <c r="L42" t="n">
-        <v>458.3824541356842</v>
+        <v>406.9362247529257</v>
       </c>
       <c r="M42" t="n">
-        <v>484.7399473579039</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O42" t="n">
         <v>511.5201565133839</v>
       </c>
       <c r="P42" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K43" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L43" t="n">
         <v>401.8727935817349</v>
@@ -37949,7 +37949,7 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N43" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O43" t="n">
         <v>381.9794231908712</v>
@@ -38019,28 +38019,28 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K44" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L44" t="n">
-        <v>575.1007761169876</v>
+        <v>575.1007761169886</v>
       </c>
       <c r="M44" t="n">
-        <v>671.8997542381568</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N44" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O44" t="n">
-        <v>635.6527791348808</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P44" t="n">
-        <v>507.6654448276929</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q44" t="n">
-        <v>332.5762668227514</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R44" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,16 +38101,16 @@
         <v>306.102070050368</v>
       </c>
       <c r="L45" t="n">
-        <v>406.9362247529266</v>
+        <v>406.9362247529257</v>
       </c>
       <c r="M45" t="n">
-        <v>554.4630955659484</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N45" t="n">
-        <v>583.6922706327294</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O45" t="n">
-        <v>511.5201565133838</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
